--- a/medicine/Psychotrope/Évelyne_Malnic/Évelyne_Malnic.xlsx
+++ b/medicine/Psychotrope/Évelyne_Malnic/Évelyne_Malnic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89velyne_Malnic</t>
+          <t>Évelyne_Malnic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Évelyne Malnic, née le 9 janvier 1947 à Paris, est une journaliste et auteure spécialisée dans le domaine de la gastronomie et du vin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89velyne_Malnic</t>
+          <t>Évelyne_Malnic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née à Paris, elle est la fille d'Alfred Malnic (Krochmalnik), (Magdebourg 1913-Paris 1996), pelletier, et de Mauricette Zavadski (Nogent-sur-Marne 1914-Paris 2007). Mariée à Georges Dybman, ils ont trois enfants, David, Patricia et Jennifer.
-Journaliste, elle est auteure d'ouvrages sur les thèmes de l'économie, la culture, le cinéma, la décoration et les arts de vivre[1].
-Elle est par ailleurs l'auteure d'un documentaire pour France 5 : La Révolution au Féminin (2004)[2].
+Journaliste, elle est auteure d'ouvrages sur les thèmes de l'économie, la culture, le cinéma, la décoration et les arts de vivre.
+Elle est par ailleurs l'auteure d'un documentaire pour France 5 : La Révolution au Féminin (2004).
 Elle crée en 2002 le Prix Centauriades qui récompense le meilleur « Beau Livre » dans le domaine du cheval.
 </t>
         </is>
